--- a/cashflow_tester.xlsx
+++ b/cashflow_tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Eren-Backup\Projects\discounted_cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2D2B0-2DBB-4814-9EA8-D08D13C0AD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248428EC-C0A1-4EB3-B63A-E54831657D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="14">
   <si>
     <t>CF_Pattern</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>uoa10</t>
+  </si>
+  <si>
+    <t>uoa11</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344448C0-5813-EF41-B935-311A4303076B}">
-  <dimension ref="A1:D1801"/>
+  <dimension ref="A1:D1981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="E539" sqref="E539"/>
+    <sheetView tabSelected="1" topLeftCell="A1970" workbookViewId="0">
+      <selection activeCell="B1981" sqref="B1981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20239,6 +20242,1986 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1802">
+        <v>1</v>
+      </c>
+      <c r="C1802" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1803">
+        <v>2</v>
+      </c>
+      <c r="C1803" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1804">
+        <v>3</v>
+      </c>
+      <c r="C1804" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1805">
+        <v>4</v>
+      </c>
+      <c r="C1805" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1806">
+        <v>5</v>
+      </c>
+      <c r="C1806" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1807">
+        <v>6</v>
+      </c>
+      <c r="C1807" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1808">
+        <v>7</v>
+      </c>
+      <c r="C1808" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1809">
+        <v>8</v>
+      </c>
+      <c r="C1809" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1810">
+        <v>9</v>
+      </c>
+      <c r="C1810" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1811">
+        <v>10</v>
+      </c>
+      <c r="C1811" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1812">
+        <v>11</v>
+      </c>
+      <c r="C1812" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1813">
+        <v>12</v>
+      </c>
+      <c r="C1813" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1814">
+        <v>13</v>
+      </c>
+      <c r="C1814" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1815">
+        <v>14</v>
+      </c>
+      <c r="C1815" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1816">
+        <v>15</v>
+      </c>
+      <c r="C1816" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1817">
+        <v>16</v>
+      </c>
+      <c r="C1817" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1818">
+        <v>17</v>
+      </c>
+      <c r="C1818" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1819">
+        <v>18</v>
+      </c>
+      <c r="C1819" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1820">
+        <v>19</v>
+      </c>
+      <c r="C1820" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1821">
+        <v>20</v>
+      </c>
+      <c r="C1821" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1822">
+        <v>21</v>
+      </c>
+      <c r="C1822" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1823">
+        <v>22</v>
+      </c>
+      <c r="C1823" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1824">
+        <v>23</v>
+      </c>
+      <c r="C1824" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1825">
+        <v>24</v>
+      </c>
+      <c r="C1825" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1826">
+        <v>25</v>
+      </c>
+      <c r="C1826" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1827">
+        <v>26</v>
+      </c>
+      <c r="C1827" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1828">
+        <v>27</v>
+      </c>
+      <c r="C1828" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1829">
+        <v>28</v>
+      </c>
+      <c r="C1829" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1830">
+        <v>29</v>
+      </c>
+      <c r="C1830" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1831">
+        <v>30</v>
+      </c>
+      <c r="C1831" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1832">
+        <v>31</v>
+      </c>
+      <c r="C1832" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1833">
+        <v>32</v>
+      </c>
+      <c r="C1833" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1834">
+        <v>33</v>
+      </c>
+      <c r="C1834" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1835">
+        <v>34</v>
+      </c>
+      <c r="C1835" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1836">
+        <v>35</v>
+      </c>
+      <c r="C1836" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1837">
+        <v>36</v>
+      </c>
+      <c r="C1837" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1838">
+        <v>37</v>
+      </c>
+      <c r="C1838" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1839">
+        <v>38</v>
+      </c>
+      <c r="C1839" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1840">
+        <v>39</v>
+      </c>
+      <c r="C1840" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1841">
+        <v>40</v>
+      </c>
+      <c r="C1841" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1842">
+        <v>41</v>
+      </c>
+      <c r="C1842" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1843">
+        <v>42</v>
+      </c>
+      <c r="C1843" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1844">
+        <v>43</v>
+      </c>
+      <c r="C1844" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1845">
+        <v>44</v>
+      </c>
+      <c r="C1845" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1846">
+        <v>45</v>
+      </c>
+      <c r="C1846" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1847">
+        <v>46</v>
+      </c>
+      <c r="C1847" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1848">
+        <v>47</v>
+      </c>
+      <c r="C1848" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1849">
+        <v>48</v>
+      </c>
+      <c r="C1849" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1850">
+        <v>49</v>
+      </c>
+      <c r="C1850" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1851">
+        <v>50</v>
+      </c>
+      <c r="C1851" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1852">
+        <v>51</v>
+      </c>
+      <c r="C1852" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1853">
+        <v>52</v>
+      </c>
+      <c r="C1853" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1854">
+        <v>53</v>
+      </c>
+      <c r="C1854" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1855">
+        <v>54</v>
+      </c>
+      <c r="C1855" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1856">
+        <v>55</v>
+      </c>
+      <c r="C1856" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1857">
+        <v>56</v>
+      </c>
+      <c r="C1857" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1858">
+        <v>57</v>
+      </c>
+      <c r="C1858" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1859">
+        <v>58</v>
+      </c>
+      <c r="C1859" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1860">
+        <v>59</v>
+      </c>
+      <c r="C1860" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1861">
+        <v>60</v>
+      </c>
+      <c r="C1861" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1862">
+        <v>61</v>
+      </c>
+      <c r="C1862" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1863">
+        <v>62</v>
+      </c>
+      <c r="C1863" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1864">
+        <v>63</v>
+      </c>
+      <c r="C1864" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1865">
+        <v>64</v>
+      </c>
+      <c r="C1865" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1866">
+        <v>65</v>
+      </c>
+      <c r="C1866" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1867">
+        <v>66</v>
+      </c>
+      <c r="C1867" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1868">
+        <v>67</v>
+      </c>
+      <c r="C1868" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1869">
+        <v>68</v>
+      </c>
+      <c r="C1869" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1870">
+        <v>69</v>
+      </c>
+      <c r="C1870" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1871">
+        <v>70</v>
+      </c>
+      <c r="C1871" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1872">
+        <v>71</v>
+      </c>
+      <c r="C1872" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1873">
+        <v>72</v>
+      </c>
+      <c r="C1873" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1874">
+        <v>73</v>
+      </c>
+      <c r="C1874" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1875">
+        <v>74</v>
+      </c>
+      <c r="C1875" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1876">
+        <v>75</v>
+      </c>
+      <c r="C1876" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1877">
+        <v>76</v>
+      </c>
+      <c r="C1877" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1878">
+        <v>77</v>
+      </c>
+      <c r="C1878" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1879">
+        <v>78</v>
+      </c>
+      <c r="C1879" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1880">
+        <v>79</v>
+      </c>
+      <c r="C1880" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1881">
+        <v>80</v>
+      </c>
+      <c r="C1881" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1882">
+        <v>81</v>
+      </c>
+      <c r="C1882" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1883">
+        <v>82</v>
+      </c>
+      <c r="C1883" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1884">
+        <v>83</v>
+      </c>
+      <c r="C1884" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1885">
+        <v>84</v>
+      </c>
+      <c r="C1885" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1886">
+        <v>85</v>
+      </c>
+      <c r="C1886" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1887">
+        <v>86</v>
+      </c>
+      <c r="C1887" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1888">
+        <v>87</v>
+      </c>
+      <c r="C1888" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1889">
+        <v>88</v>
+      </c>
+      <c r="C1889" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1890">
+        <v>89</v>
+      </c>
+      <c r="C1890" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1891">
+        <v>90</v>
+      </c>
+      <c r="C1891" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1892">
+        <v>91</v>
+      </c>
+      <c r="C1892" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1893">
+        <v>92</v>
+      </c>
+      <c r="C1893" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1894">
+        <v>93</v>
+      </c>
+      <c r="C1894" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1895">
+        <v>94</v>
+      </c>
+      <c r="C1895" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1896">
+        <v>95</v>
+      </c>
+      <c r="C1896" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1897">
+        <v>96</v>
+      </c>
+      <c r="C1897" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1898">
+        <v>97</v>
+      </c>
+      <c r="C1898" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1899">
+        <v>98</v>
+      </c>
+      <c r="C1899" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1900">
+        <v>99</v>
+      </c>
+      <c r="C1900" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1901">
+        <v>100</v>
+      </c>
+      <c r="C1901" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1902">
+        <v>101</v>
+      </c>
+      <c r="C1902" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1903">
+        <v>102</v>
+      </c>
+      <c r="C1903" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1904">
+        <v>103</v>
+      </c>
+      <c r="C1904" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1905">
+        <v>104</v>
+      </c>
+      <c r="C1905" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1906">
+        <v>105</v>
+      </c>
+      <c r="C1906" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1907">
+        <v>106</v>
+      </c>
+      <c r="C1907" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1908">
+        <v>107</v>
+      </c>
+      <c r="C1908" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1909">
+        <v>108</v>
+      </c>
+      <c r="C1909" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1910">
+        <v>109</v>
+      </c>
+      <c r="C1910" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1911">
+        <v>110</v>
+      </c>
+      <c r="C1911" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1912">
+        <v>111</v>
+      </c>
+      <c r="C1912" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1913">
+        <v>112</v>
+      </c>
+      <c r="C1913" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1914">
+        <v>113</v>
+      </c>
+      <c r="C1914" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1915">
+        <v>114</v>
+      </c>
+      <c r="C1915" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1916">
+        <v>115</v>
+      </c>
+      <c r="C1916" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1917">
+        <v>116</v>
+      </c>
+      <c r="C1917" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1918">
+        <v>117</v>
+      </c>
+      <c r="C1918" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1919">
+        <v>118</v>
+      </c>
+      <c r="C1919" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1920">
+        <v>119</v>
+      </c>
+      <c r="C1920" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1921">
+        <v>120</v>
+      </c>
+      <c r="C1921" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1922">
+        <v>121</v>
+      </c>
+      <c r="C1922" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1923">
+        <v>122</v>
+      </c>
+      <c r="C1923" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1924">
+        <v>123</v>
+      </c>
+      <c r="C1924" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1925">
+        <v>124</v>
+      </c>
+      <c r="C1925" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1926">
+        <v>125</v>
+      </c>
+      <c r="C1926" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1927">
+        <v>126</v>
+      </c>
+      <c r="C1927" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1928">
+        <v>127</v>
+      </c>
+      <c r="C1928" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1929">
+        <v>128</v>
+      </c>
+      <c r="C1929" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1930">
+        <v>129</v>
+      </c>
+      <c r="C1930" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1931">
+        <v>130</v>
+      </c>
+      <c r="C1931" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1932">
+        <v>131</v>
+      </c>
+      <c r="C1932" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1933">
+        <v>132</v>
+      </c>
+      <c r="C1933" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1934">
+        <v>133</v>
+      </c>
+      <c r="C1934" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1935">
+        <v>134</v>
+      </c>
+      <c r="C1935" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1936">
+        <v>135</v>
+      </c>
+      <c r="C1936" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1937">
+        <v>136</v>
+      </c>
+      <c r="C1937" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1938">
+        <v>137</v>
+      </c>
+      <c r="C1938" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1939">
+        <v>138</v>
+      </c>
+      <c r="C1939" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1940">
+        <v>139</v>
+      </c>
+      <c r="C1940" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1941">
+        <v>140</v>
+      </c>
+      <c r="C1941" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1942">
+        <v>141</v>
+      </c>
+      <c r="C1942" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1943">
+        <v>142</v>
+      </c>
+      <c r="C1943" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1944">
+        <v>143</v>
+      </c>
+      <c r="C1944" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1945">
+        <v>144</v>
+      </c>
+      <c r="C1945" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1946">
+        <v>145</v>
+      </c>
+      <c r="C1946" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1947">
+        <v>146</v>
+      </c>
+      <c r="C1947" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1948">
+        <v>147</v>
+      </c>
+      <c r="C1948" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1949">
+        <v>148</v>
+      </c>
+      <c r="C1949" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1950">
+        <v>149</v>
+      </c>
+      <c r="C1950" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1951">
+        <v>150</v>
+      </c>
+      <c r="C1951" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1952">
+        <v>151</v>
+      </c>
+      <c r="C1952" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1953">
+        <v>152</v>
+      </c>
+      <c r="C1953" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1954">
+        <v>153</v>
+      </c>
+      <c r="C1954" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1955">
+        <v>154</v>
+      </c>
+      <c r="C1955" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1956">
+        <v>155</v>
+      </c>
+      <c r="C1956" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1957">
+        <v>156</v>
+      </c>
+      <c r="C1957" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1958">
+        <v>157</v>
+      </c>
+      <c r="C1958" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1959">
+        <v>158</v>
+      </c>
+      <c r="C1959" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1960">
+        <v>159</v>
+      </c>
+      <c r="C1960" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1961">
+        <v>160</v>
+      </c>
+      <c r="C1961" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1962">
+        <v>161</v>
+      </c>
+      <c r="C1962" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1963">
+        <v>162</v>
+      </c>
+      <c r="C1963" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1964">
+        <v>163</v>
+      </c>
+      <c r="C1964" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1965">
+        <v>164</v>
+      </c>
+      <c r="C1965" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1966">
+        <v>165</v>
+      </c>
+      <c r="C1966" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1967">
+        <v>166</v>
+      </c>
+      <c r="C1967" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1968">
+        <v>167</v>
+      </c>
+      <c r="C1968" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1969">
+        <v>168</v>
+      </c>
+      <c r="C1969" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1970">
+        <v>169</v>
+      </c>
+      <c r="C1970" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1971">
+        <v>170</v>
+      </c>
+      <c r="C1971" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1972">
+        <v>171</v>
+      </c>
+      <c r="C1972" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1973">
+        <v>172</v>
+      </c>
+      <c r="C1973" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1974">
+        <v>173</v>
+      </c>
+      <c r="C1974" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1975">
+        <v>174</v>
+      </c>
+      <c r="C1975" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1976">
+        <v>175</v>
+      </c>
+      <c r="C1976" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1977">
+        <v>176</v>
+      </c>
+      <c r="C1977" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1978">
+        <v>177</v>
+      </c>
+      <c r="C1978" s="2">
+        <v>1.9928985306389766E-4</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1979">
+        <v>178</v>
+      </c>
+      <c r="C1979" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1980">
+        <v>179</v>
+      </c>
+      <c r="C1980" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1981">
+        <v>180</v>
+      </c>
+      <c r="C1981" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
